--- a/python/two/night3 SD t1=6 t2=3 δ=0.95.xlsx
+++ b/python/two/night3 SD t1=6 t2=3 δ=0.95.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>6.08e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0684</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.07e+00</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0345</t>
+          <t>0.0631</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.48e+00</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>163.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>2.74e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>773.0</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.47e+00</t>
+          <t>9.98e-01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>163.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.00e+00</t>
+          <t>2.77e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>781.0</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.40e-01</t>
+          <t>7.00e-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.00e-02</t>
+          <t>8.20e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>14.3</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.75e-07</t>
+          <t>4.5e-06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.29e-07</t>
+          <t>4.81e-06</t>
         </is>
       </c>
     </row>

--- a/python/two/night3 SD t1=6 t2=3 δ=0.95.xlsx
+++ b/python/two/night3 SD t1=6 t2=3 δ=0.95.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.08e+00</t>
+          <t>6.28e+01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0684</t>
+          <t>47500.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>6.02e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0631</t>
+          <t>0.0943</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.00e+00</t>
+          <t>5.94e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>163.0</t>
+          <t>0.0431</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.74e+00</t>
+          <t>5.92e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>773.0</t>
+          <t>0.137</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.98e-01</t>
+          <t>5.97e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>163.0</t>
+          <t>0.0624</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.77e+00</t>
+          <t>5.96e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>781.0</t>
+          <t>0.14</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.00e-01</t>
+          <t>3.67e-05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.20e-01</t>
+          <t>1.38e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>0.355</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.5e-06</t>
+          <t>4.57e-06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.81e-06</t>
+          <t>4.62e-06</t>
         </is>
       </c>
     </row>

--- a/python/two/night3 SD t1=6 t2=3 δ=0.95.xlsx
+++ b/python/two/night3 SD t1=6 t2=3 δ=0.95.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.28e+01</t>
+          <t>5.97e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47500.0</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.02e+00</t>
+          <t>5.99e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0943</t>
+          <t>0.0137</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.94e+00</t>
+          <t>6.02e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0431</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.92e+00</t>
+          <t>5.69e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>213.0</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.97e+00</t>
+          <t>6.01e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0624</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.96e+00</t>
+          <t>5.71e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>214.0</t>
         </is>
       </c>
     </row>
@@ -569,22 +569,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.67e-05</t>
+          <t>5.18e-02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0701</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.38e-01</t>
+          <t>8.48e-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.355</t>
+          <t>36.0</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.57e-06</t>
+          <t>9.23e-07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.62e-06</t>
+          <t>1.01e-06</t>
         </is>
       </c>
     </row>
